--- a/Kitschy/Время.xlsx
+++ b/Kitschy/Время.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="D4:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,25 +493,43 @@
       <c r="D6" s="2">
         <v>43849</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
+      <c r="E6" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <v>43850</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
+      <c r="E7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <v>43851</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="4"/>
+      <c r="E8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
@@ -567,7 +585,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="4">
         <f>SUM(G5:G15)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Kitschy/Время.xlsx
+++ b/Kitschy/Время.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="D4:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,17 +535,29 @@
       <c r="D9" s="2">
         <v>43852</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <v>43853</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4"/>
+      <c r="E10" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
@@ -585,7 +597,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="4">
         <f>SUM(G5:G15)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
